--- a/DADOS_PETROLEO_ST.xlsx
+++ b/DADOS_PETROLEO_ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flavi\OneDrive\Área de Trabalho\Arquivos\1 - Cursos\1 - Fiap pós graduação\FASE 4 - DATA VIZ AND PRODUCTION MODELS\TechChallange\Dashboard - Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837D18D-5BAE-4185-8AAE-EC1C52044E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D8364-8545-497F-BB42-CB91B6D8C67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8108493-7705-4F48-AF99-12428A09A8BD}"/>
   </bookViews>
@@ -574,9 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4747F3F-07BB-4888-8B10-01C2615EC1B7}">
   <dimension ref="A1:C11346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D166" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
